--- a/Exercise 6.xlsx
+++ b/Exercise 6.xlsx
@@ -323,7 +323,7 @@
     <t>Max</t>
   </si>
   <si>
-    <t>The Data shows the highest and lowest numeric value showed is at the middle and the quartiles are at the middle</t>
+    <t>The Data shows the highest and lowest numeric value showed is at the middle and the quartiles are at between the highest and lowest.</t>
   </si>
 </sst>
 </file>
@@ -502,11 +502,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="912332027"/>
-        <c:axId val="1773811722"/>
+        <c:axId val="1955770560"/>
+        <c:axId val="443203568"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="912332027"/>
+        <c:axId val="1955770560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,10 +557,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1773811722"/>
+        <c:crossAx val="443203568"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1773811722"/>
+        <c:axId val="443203568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +635,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912332027"/>
+        <c:crossAx val="1955770560"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -790,11 +790,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="2028128634"/>
-        <c:axId val="1267050395"/>
+        <c:axId val="1585904019"/>
+        <c:axId val="2045350215"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="2028128634"/>
+        <c:axId val="1585904019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,10 +845,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1267050395"/>
+        <c:crossAx val="2045350215"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1267050395"/>
+        <c:axId val="2045350215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +923,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2028128634"/>
+        <c:crossAx val="1585904019"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1078,11 +1078,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="457017652"/>
-        <c:axId val="1296069142"/>
+        <c:axId val="968726471"/>
+        <c:axId val="947957944"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="457017652"/>
+        <c:axId val="968726471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,10 +1133,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1296069142"/>
+        <c:crossAx val="947957944"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1296069142"/>
+        <c:axId val="947957944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1211,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457017652"/>
+        <c:crossAx val="968726471"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
